--- a/PCAstatic/predicted_variables.xlsx
+++ b/PCAstatic/predicted_variables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN4"/>
+  <dimension ref="A1:BN41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,6 +1365,7406 @@
         <v>-0.06148832813486033</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.04245525434428414</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.0204258046397328</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.02123897260830712</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.03207727354730414</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.01989667056332791</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.04823928336724969</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.03810690830287472</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.04640431984440386</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.01331449113921191</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.03885507951366551</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.03427653782253112</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.02759022377421979</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.02620103905461612</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.03020825623008692</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.01486868636772111</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.006403156702657907</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.03063259462594094</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.01089500179041763</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.01695798115989269</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.006551704647565919</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.01390803256397089</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.03168119871927116</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.08780274813270186</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.008191775511115253</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.01272833058044677</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.01813694981526379</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.01539150131431042</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1059564365302877</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0116196345260389</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.03874309534923433</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.003202561810981084</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.01063717623228958</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.05757436315788601</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.00741370186416767</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.005769740062649918</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.004280406776355341</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.002059865039323327</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.001934030618048204</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.00631748067912009</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.00365471897336791</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.001001928449222478</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.00239616510343642</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.001935048583487798</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.001757288648073924</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08390553222895815</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.07153974041923668</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.06616466303938616</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.05608316870846015</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>-0.03032176634789925</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>-0.06585581253036039</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>-0.06585581253036039</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>-0.07684069048507138</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>-0.03607965315644395</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>-0.07176393253883842</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>-0.06688496623551393</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>-0.06953195237119934</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>-0.07702866087714119</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>-0.06418474154586219</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>-0.04884601953361783</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>-0.01144392867119566</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-0.07947620175666376</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>-0.05782897759044942</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>-0.0675824023825351</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>-0.03229233504576152</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>-0.06151427246545989</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>-0.06129447382479308</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.04209064092622349</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.02004030550715469</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.02098974044663314</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.03186351300885509</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.0197185920048263</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.04796109232723334</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.03789233786264282</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.04595391766069749</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.01300567549770476</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.03865740476369811</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.03378668270367821</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.02768037030424841</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.0255491868895697</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.02955466215520085</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.01390579574355561</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.005756568208922433</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.03048210382219461</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.01073726704248154</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.01614743494679337</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.005894165061526169</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.01335013213083918</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.03131363611142835</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0870609783471233</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.008618205918457102</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.01327379571621362</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.01863328240010983</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.01484233430597277</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1041976481242329</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.01088398279112493</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.03943602122747941</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.002690808455565034</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01020384216317434</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.05809994943681044</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.00724636547697103</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.005495914479029626</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.003987999360131404</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.001870646570429699</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.002072881791245669</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.006072634734299183</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.003700539773389627</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0006616896555829635</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.002226640381114466</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.001795023677373262</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.001429482367948072</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.08396888434469668</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.07159600637528631</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.06623725241763537</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>-0.05612862834501505</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>-0.03037092919852199</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>-0.06592408796311575</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>-0.06592408796311575</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>-0.07693963492220954</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>-0.03609067124595635</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>-0.07186984688815606</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>-0.06693954988974876</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>-0.06936058552710253</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>-0.07678561021504729</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>-0.06407857786944679</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-0.04863868905442387</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>-0.01143311095887566</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>-0.07936647640221133</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-0.05756190322694387</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>-0.06735737717879385</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-0.03209157018526686</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>-0.06139061688435753</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>-0.06111556399896957</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.0417388574756261</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.01967547727230898</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.02074545889697295</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.03166394789825667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.01955312649344563</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.04769321688250524</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.03767055277055226</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.04551729043171159</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.01271032277443903</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.03846694941772798</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.03333015747379364</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.02777941509333203</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.02494802128782228</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.02896833601401003</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.01301204222378062</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.00519642152492772</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.03038651213698934</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.01062469521002687</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.01541214430116061</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.005280522516394564</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.01285789307478051</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.03099923936530472</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.08602260891123792</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.009051248871055184</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.0138385712864881</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.01913997383676506</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.01428883030764827</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1020895109702332</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.01013143050707035</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.04012669137125216</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.002172384803600255</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.009771933926033686</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.05862787675689661</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.007093488013769179</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.005245922384186121</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.003721168957829401</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.001678149427329796</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.002195027889315707</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.005850933211151477</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.003742021639121768</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0003320639410072505</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.002061108052236804</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0016736631369603</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.00113939309660172</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.08404936563862908</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.07166624932009806</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.06631833924584758</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.05618114654675342</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>-0.03042727387724064</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>-0.06599418104949796</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>-0.06599418104949796</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-0.07705598266986022</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>-0.03610658475553707</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>-0.07199067907181061</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>-0.06700251758118554</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>-0.06921986536217258</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>-0.07656063212892769</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>-0.06397727293746905</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-0.04843885452473442</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>-0.01142436150999456</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>-0.07929179604491803</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-0.05728105076539831</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>-0.06715235873357976</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>-0.03189450525399583</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>-0.06128687538909613</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>-0.0609528506114005</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.04140098349262201</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.01933203516146241</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.02050725107665628</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.03147899962577214</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.01940070077881499</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.04743660341367217</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.03744319160298434</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.04509610052932434</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.01242930013244862</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.03828449674478368</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.03290773650060411</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.02788673720946586</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.02439853888762378</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.0284494313786474</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.01218937041845213</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.004720817929504055</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.03034306648831829</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.01055576501209762</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.01475285105511069</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.004712548227108296</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.01243078114422054</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.03073730369067264</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.08470714450328601</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.009488038547505569</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.01441851726879956</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.01965382792352325</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.01373453745024753</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.09966566621186768</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.009367261434899372</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.04081147515936505</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.001650543043000652</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.009343680927641589</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.05915532577925352</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.006955285651415779</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.005020064784275196</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.003480210376939008</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.001484037933303224</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.002300764932770578</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.005652214926275972</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.003778852535821848</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.48384719805493e-05</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.001900581371340786</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.001570672049214478</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.0008867406655180907</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.08414589200603886</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.07174953289540159</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.0664072207740609</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.05624024768076072</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>-0.03049029152911213</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-0.06606579849536319</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>-0.06606579849536319</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>-0.07718829877270567</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>-0.03612722364313409</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>-0.07212523105052131</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>-0.06707349280022611</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0.06910937275756354</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>-0.0763547876204977</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-0.06388168345825636</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0.04824773440290129</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>-0.0114177532924365</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>-0.07925134954748277</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>-0.05698924731407384</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>-0.06696772837879128</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-0.03170242122151615</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>-0.06120338917501532</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>-0.06080739897612492</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.04107800820599226</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.01901056506003388</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.02027617359471174</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.03130899749221747</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.019261641272002</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.04719211889140176</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.03721187473471838</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.04469187718516154</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.01216336962761175</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.03811076601974598</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.03251998174719505</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.02800167648878646</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.02390138062753633</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.02799768267112282</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.01143919617135656</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.004327467675675961</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.03034885053623064</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.01052875445876744</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.01416978763140608</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.004191633458793033</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.01206788860398691</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.03052682713715498</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.08313514958692456</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.009925795423113701</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.01500955934017011</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.0201717079051439</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.01318287882589408</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.09696014490125006</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.008596622589561032</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.04148691197270053</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0011284358391106</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.008921219652769164</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.05967958184029918</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.006831875535234243</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.004818480774514503</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.00326524728747716</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.001289895180430277</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.002390469266674603</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.005476206251597848</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.003810779300626492</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.000288376496947693</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.001745985862645479</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.001485658748881284</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.0006710281278916887</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.08425735485746025</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.07184490570972879</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.06650320222307513</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.05630545612143876</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-0.03055946055617781</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0.06613867175441436</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0.06613867175441436</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>-0.07733514834246645</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>-0.0361524084578986</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>-0.07227229300790358</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>-0.06715207059135889</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>-0.06902853588044235</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-0.07616896671002979</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>-0.06379259555054206</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-0.04806643704341872</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-0.01141334225289121</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>-0.07924415605588582</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>-0.05668926364984819</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>-0.06680375189805832</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>-0.03151651218119628</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>-0.06114033999829051</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>-0.06068009033782389</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.04077082471285358</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.01871152284325133</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.02005321074419109</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.03115417899293671</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.01913617602478901</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.04696054590359908</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.0369781927590119</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.04430600928229503</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.01191318608697283</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.03794640872904295</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.03216724567214982</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.0281235401519458</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.02345684199391071</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.02761242428208191</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.01076241969139726</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.004013719207689821</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.03040080876610701</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.01054176044043913</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.0136626974365598</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.003718797413469361</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.01176795591439952</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.03036653005154009</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.08132805035060012</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.01036184487728009</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.01560771767207846</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.02069056113608587</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.01263713027059675</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.09400712415397658</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.007824490342621492</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.04214973222050795</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0006090955136757075</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.00850657916816051</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.06019805234581148</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.006723279025788693</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.004641153409602255</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.003076238463066317</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.001097216855377079</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.002464592029835521</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.00532252632696219</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.003837605933697756</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.0005761496175045011</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.001598157514670099</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.001418141314123594</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0004915542622674169</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-0.08438262678064842</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.07195140587883492</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.06660559851345131</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-0.05637629736631795</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-0.03063424977637717</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-0.06621255553563082</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>-0.06621255553563082</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>-0.07749510279747999</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>-0.03618195055768021</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>-0.07243064965598991</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>-0.06723782036005521</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>-0.06897663860903896</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>-0.07600388918097403</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-0.0637107213938681</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>-0.04789595745375299</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>-0.01141116748071433</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-0.07926907720048185</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>-0.05638379720094359</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>-0.06666057993788387</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>-0.03133788049117748</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>-0.06109775607505687</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>-0.06057162489772897</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.04048022522627422</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.01843523477049955</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.01983926951102539</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.03101469087439011</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.01902443735848036</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.04674257867349784</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.0367436956740736</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.04393973961751545</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.0116792959122271</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.03779200549091618</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.03184967560808268</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.02825160938204709</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.0230648852073825</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.02729261161329313</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.01015944167803906</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.00377658974281531</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.03049577057033011</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.01059271880420079</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.01323085772798077</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.003294697375219243</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.01152939490476133</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.03025487557993341</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.07930794140020912</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.01079363180167488</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.01620913091836692</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.02120743826116276</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.01210040265945005</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.09084069451988572</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.007055642710791894</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.04279687249419871</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9.541744447562339e-05</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.008101670376101978</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.06070827992980111</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.006629425487542144</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.004487916403687371</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.002912984949139995</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.0009074059031984324</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.002523653328881527</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.005190692845113485</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.003859191593090178</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.0008472291710294743</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.00145784165555229</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.001367554433973333</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.0003474269291810009</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.08452056724749353</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.07206806560317411</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.06671373603595603</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.05645229923754806</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>-0.03071412157029985</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>-0.06628722637873161</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>-0.06628722637873161</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>-0.07766674600067669</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>-0.03621565248518137</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>-0.07259908647428522</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>-0.06733028879510281</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>-0.06895282971842179</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>-0.07586010652347293</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>-0.06363669664745589</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>-0.04773717506733159</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>-0.0114112515128108</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>-0.07932483006623524</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>-0.05607545645808492</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>-0.06653824943698662</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>-0.03116753285673061</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>-0.06107551883087847</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>-0.0604825258797616</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.0402068974224106</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.01818189889249445</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.01963517544607133</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.03089059086249121</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.01892646505353466</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.04653882003047776</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.03650988294178088</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.04359416060458328</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.01146213678211805</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.0376480637164664</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.03156721951149628</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.02838514576414341</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.02272515322034311</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.02703684383898843</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.009630182207031622</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.003612796900472654</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.03063047414703463</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.01067942466521383</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.01287310468669191</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.002919640880098624</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.0113503131956566</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.03019009102466908</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.07709739758540171</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.01121873341686931</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.01681007794070632</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.02171951033439632</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.01157562651467902</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.08749463884113659</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.006294634716038628</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.04342548819193306</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.0004098545161466084</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.00770827688954606</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.06120795378572587</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.006550156560689717</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.004358461575213174</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.002775138021334137</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.0007217680437511278</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.002568236178958561</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.005080128354469716</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.003875448338576544</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.00110054255914029</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.00132569248603996</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.001333256556396231</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.0002375771502596347</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.08467002832220863</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.07219391572701905</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.06682695441921492</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.05653299313997912</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>-0.03079853498517446</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>-0.06636248128169381</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>-0.06636248128169381</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>-0.0778486802292807</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>-0.03625330847619997</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>-0.07277639579951153</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>-0.06742900289375785</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>-0.06895613271194775</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>-0.07573800502385188</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>-0.06357107860687639</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>-0.04759085247553647</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>-0.01141360075602753</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>-0.0794100006907502</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>-0.05576674680027643</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>-0.06643668595665225</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>-0.03100637730966646</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>-0.06107337037344361</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>-0.06041314461461116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.03995142185121091</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.01795158740604517</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.0194416693865913</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.0307818500101854</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.01884221004616439</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.04634977929895064</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.03627819444654305</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.04327021137023453</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.01126203820840224</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.03751501598960232</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.03131963296923283</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.02852339754388214</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.02243698534083174</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.02684338814356802</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.009174102110208837</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.003518791096580726</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.03080159005109328</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.01079955279033467</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.0125878604128492</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.002593599723355013</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.01122853963621858</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.0301701898649094</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.07471929191541396</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.01163487049066766</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.01740699745894722</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.02222408416112655</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.01106553872352328</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.08400222349870295</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.005545776561333454</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.04403296393946221</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.0009041407962991077</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.007328047325467491</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.06169491939002493</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.006485230861305636</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.004252346947718432</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.002662207835154544</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.0005415081335075349</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.002598980266283489</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.004990167007838096</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.003886338652077663</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.001335194621744289</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.001202273242512829</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.001314537250428806</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.0001607737761637616</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.08482986032187789</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.07232799023871704</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.06694460827170465</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.05661791535629278</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>-0.03088694877271456</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>-0.06643813637831403</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>-0.06643813637831403</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>-0.07803953193015334</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>-0.03629470508401219</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>-0.07296138271981167</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>-0.06753347306041894</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>-0.06898545619032202</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>-0.07563780992036775</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>-0.06351434506960392</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>-0.04745763507571474</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>-0.01141820601620191</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>-0.07952305795401617</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>-0.05546005775610769</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>-0.06635570683787249</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>-0.03085522105699473</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>-0.06109092159647587</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>-0.06036366656194953</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.03971427036784086</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.01774424988732608</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.01925940500382296</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.03068835561296408</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.0187715385803781</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.04617587106722675</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.03605000236889869</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.04296867618706192</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.01107922289537881</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.0373932191366988</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.03110648734390957</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.02866560567085184</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.02219943429188263</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.02671020519195845</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.008790226577077627</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.003490788432487944</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.03100574424387674</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.01095067790589402</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.01237316156103751</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.002316225617538351</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-0.01116165052794534</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.03019299425438288</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.07219662049042727</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-0.01203991697912917</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-0.01799650561517083</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.02271861587657772</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.0105726713311199</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.08039600288488802</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.004813114606298366</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-0.04461692187191463</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.001385037055148564</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.006962488979306071</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-0.06216718664974191</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.006434329055156534</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.004169005417326114</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.002573572671536705</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.0003677273586814315</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-0.002616575585776737</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.004920061684427109</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-0.003891872761052676</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-0.001550464848941053</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.001088056959283349</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.001310624719699647</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.0001156386119304771</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>-0.0849989173829952</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>-0.07246933067547209</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>-0.06706606887867314</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>-0.05670660836146933</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>-0.03097882433969906</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>-0.06651402566515328</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>-0.0665140256651533</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>-0.07823795722042867</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>-0.03633962190510342</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>-0.07315287073403337</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>-0.06764319624920637</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>-0.06903960465273525</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>-0.07555959054040837</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>-0.0634668938778528</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>-0.04733805158985691</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>-0.0114250431239793</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>-0.07966236773691776</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>-0.05515765171482503</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>-0.06629502511344348</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>-0.03071476916845525</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>-0.0611276608262013</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>-0.06033411818383728</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.03949580553742166</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.01755971733222797</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.01908894714863752</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.030609914640123</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.01871423676368612</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.04601741479461027</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.03582660398117832</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.04269018418134527</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.0109138088500695</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.0372829539534533</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.03092717893909467</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.02881100959574839</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.02201128451471306</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.02663497559236811</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.008477170704031926</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.003524803818393302</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.03123954049968715</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.01113029479011587</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.01222668933502354</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.002086867313330962</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.01114699641267111</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.03025615781565179</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.06955233528800848</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.01243190810513211</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.01857541143647395</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.02320072276076927</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.01009934237702717</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.07670763781399043</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.00410041513122924</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.0451752278289802</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.001850323346527714</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.006612962850976435</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.06262293649807951</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.006397059250757957</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.004107753898193136</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.002508488683896545</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.0002014212403820073</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.002621756005137235</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.004868991413606417</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.003892105791211896</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.001745803557879348</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.0009834277967802568</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.001320693406920413</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.0001006618716200888</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.0851760628909841</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.07261699039902124</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.06719072583644052</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.05679862214004587</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>-0.03107362859201475</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>-0.06658999977739798</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>-0.06658999977739798</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>-0.07844264709750928</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>-0.03638783239182263</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>-0.07334970714092301</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>-0.06775765912210323</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>-0.06911728962721256</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>-0.07550326633185094</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>-0.0634290431043298</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>-0.04723251540518276</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>-0.01143407364748774</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>-0.07982620723090936</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>-0.05486165409136814</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>-0.06625425410240601</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>-0.03058562406862284</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>-0.06118296292272191</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>-0.06032437458042157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.03929628096177801</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.01739770693066191</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.01893077096342153</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.03054625762885746</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.01867001547454117</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.04587463521168977</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.03560921536609304</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.04243521024862638</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.01076581218781825</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.03718442555378989</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.03078093906424071</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.02895885279369132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.02187107152518509</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.02661512711635815</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.008233166717278431</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.003616684082743361</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.03149958203847743</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.0113358380191571</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.01214580056620534</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.001904588994159339</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.01118172920947834</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0.03035718855720612</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.06680918555146721</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.01280904689768382</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0.01914073019477354</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0.02366819329921315</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.009647648733359266</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.07296772845364455</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.00341115086177027</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-0.0457059955253331</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-0.002297971522685074</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.0062806799867335</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-0.06306052596953139</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.006372962657798731</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.004067802858334163</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.002466100053568433</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>4.347842781518427e-05</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-0.0026152928046441</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.004836069030507342</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-0.00388713477486387</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>-0.001920827109332909</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.000888682899937499</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.001343871631337976</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.0001142178382463254</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>-0.08536017473321179</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>-0.07277003871152719</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>-0.06731798860826099</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>-0.05689351549076718</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>-0.03117083665473182</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>-0.06666592481323591</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>-0.06666592481323591</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>-0.07865233232679167</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>-0.03643910473789631</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>-0.07355076812704553</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>-0.06787634119582975</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>-0.06921714103048254</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>-0.07546861369966439</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>-0.06340103184408417</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>-0.04714132668481843</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>-0.01144524568190777</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>-0.08001277928640423</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>-0.05457404493965525</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>-0.06623291261360599</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>-0.03046828579562882</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>-0.06125609874994364</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>-0.06033416779815145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.03911584247352901</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.01725782750056097</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.01878526172487805</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.03049704298793348</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.01863851556976964</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.04574766346594623</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.03539896605298</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.04220407710524307</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.01063515057624723</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.03709776430339959</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.03066684487948483</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.02910838798923207</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.02177710213528604</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.02664786244767618</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.008056092597664821</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.003762140831754558</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.03178249226647627</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.01156470124466464</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.01212755960620776</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.001768189756172652</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.01126282949361164</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-0.03049347174742825</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.06398956843316779</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.01316970922427189</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-0.01968969467606137</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-0.02411899550988835</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.009219460891330942</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.06920566223158456</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.002748490209422123</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-0.04620758876859142</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>-0.002726150915699032</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.005966699094287038</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-0.06347849179485404</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.00636151945793816</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.004048266159909623</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.0024454494623642</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>-0.0001053197487415375</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-0.002597988239664099</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.004820348995592745</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-0.003877095540989583</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-0.002075312241760121</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.0008040347491859221</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.001379249203804337</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.0001545806096929525</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>-0.08555015033960929</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>-0.07292756478399837</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>-0.06744728798764368</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>-0.0569908573044013</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>-0.03126993445264263</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>-0.06674168120638592</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>-0.06674168120638593</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>-0.07886578797976032</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>-0.03649320282315634</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>-0.07375496352621284</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>-0.06799871795224412</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>-0.06933771866134625</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>-0.07545527355790095</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>-0.06338302157353655</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>-0.04706467519417157</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>-0.01145849470598381</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>-0.0802202266930078</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>-0.05429665199896429</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>-0.06623043068502205</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>-0.03036315298529536</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>-0.06134624492949992</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>-0.06036309572054504</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.03895453014000177</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.01713958550673956</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.01865271537939956</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.03046186165768521</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.01861931334077094</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.04563653896239925</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.0351968945606294</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.04199695840014441</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.01052164725913879</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.03702302729859678</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.03058383090130672</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.02925888206181535</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.02172747535484236</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.0267301872390554</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.00794350183944059</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.003956782836837825</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.03208493451855009</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.01181425589004813</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.01216877077180402</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.001676223986945508</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.01138713371972682</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.03066229258796666</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.06111538945203021</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.0135124473571098</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.02021976438506106</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.0245512835675559</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.008816419632608128</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.06544947704786673</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.002115289166929415</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.04667862180675472</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.00313323234382868</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.005671925382162365</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.06387555256420012</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.006362154836174937</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.004048171120243846</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.002445488793348477</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.0002442989973530137</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.002570669170334788</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.004820835312713438</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.003862159512748238</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.002209189602934838</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.0007296139648704768</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.001425884967028543</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.000219939816619559</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.08574491147865383</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.07308868137255836</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.06757807745673716</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.05709022780168538</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>-0.03137042113756108</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>-0.06681716264643864</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>-0.06681716264643865</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>-0.07908183759930928</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>-0.03654988720431524</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>-0.07396124122713842</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>-0.06812426388876611</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>-0.06947752373565336</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>-0.0754627595069268</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>-0.0633750980360205</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>-0.04700264378651764</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>-0.01147374449559589</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>-0.08044664629073449</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>-0.05403114514936752</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>-0.06624615578585262</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>-0.03027052453666125</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>-0.06145249379638461</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>-0.06041063145197386</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.03881228101710276</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.01704239158970572</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.0185333397300181</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.03044024207344993</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.01861192616810392</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.04554121184704906</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.03500394483015826</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.04181388280810037</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.01042503560089717</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.03696020034960813</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.03053070105166373</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.02940962061366324</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.02172010379322824</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.02685893826504935</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.007892654080445226</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.004196147742158219</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.03240363070845757</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.01208186916227439</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.01226601108947057</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.001627022459215914</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.01155136120196602</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-0.03086085853820304</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.05820793323131865</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-0.01383599212201544</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-0.02072863272395025</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-0.02496340276635669</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.008439934512366059</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.06172574000166282</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.00151408578262421</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>-0.04711795789570591</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>-0.003517790499050843</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.005397110568528924</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-0.06425060951409038</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.006374245122471128</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.004066468712474619</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.002465089973772205</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>-0.0003728910918698414</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>-0.002534180800206832</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.004836489482875626</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-0.003842530437571278</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>-0.002322536560897647</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.0006654725246851283</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.00148281421169478</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.0003084162041734734</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>-0.08594340878013407</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>-0.07325252830089943</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>-0.06770983442907061</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>-0.05719121971957385</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>-0.03147181135054052</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>-0.06689227504667031</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>-0.06689227504667031</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>-0.07929935697329719</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>-0.03660891613915504</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>-0.07416859120992006</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>-0.06825245548708778</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>-0.06963501037552343</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>-0.07549046654606185</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>-0.06337727361177087</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>-0.04695521248969469</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>-0.01149090808464457</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>-0.08069010281773421</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>-0.05377903224387154</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>-0.06627935940915693</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>-0.03019060191248731</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>-0.06157386347672444</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>-0.06047613310594507</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.03868893259143609</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.01696556752995407</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.01842725623168582</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.03043165538024402</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.01861581832521961</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.04546154607934161</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.03482096352630155</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.04165473902288212</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.01034496409176574</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.03690920042618707</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.03050614113555054</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.0295599121852265</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.02175273538637052</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.02703081146883886</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.007900546348193144</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.004475732899709488</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.0327353788055007</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.01236492128582791</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.0124156630972764</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-0.001618713960027236</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-0.01175214067428204</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.03108632115220296</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.05528774489096108</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-0.01413925368584257</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-0.02121423219565344</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.02535389287077269</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.008091184072401256</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.05805944172525507</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.0009470971240599648</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>-0.04752470618498399</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>-0.003878604780203853</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.005142853999582753</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-0.06460274600052854</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.006397123995066057</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.004102043827790851</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.002503055877395749</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>-0.0004906322461063027</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>-0.00248938056279169</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.004866238433936769</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-0.003818441074305518</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>-0.002415569376999273</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.0006115873528231249</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.00154905592243208</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.0004180769755888188</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>-0.08614462595977633</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>-0.0734182756902496</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>-0.06784206136760436</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>-0.05729343943517451</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>-0.03157363730901223</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>-0.06696693555898037</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>-0.06696693555898037</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>-0.07951727750139177</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>-0.03667004663207819</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>-0.07437604919576264</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>-0.06838277408025471</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>-0.06980859697033873</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>-0.0755376802327019</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>-0.0633894901292352</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>-0.04692226313465292</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>-0.01150988876369241</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>-0.08094864240675574</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>-0.05354165627722222</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>-0.06632924398407634</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>-0.03012349202636385</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>-0.06170930801124062</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>-0.06055885391092874</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.03858422684760253</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.01690835357417071</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.01833450234977927</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.03043552084748689</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.01863040688351753</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.04539732303877587</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.03464869818078153</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.04151928156711186</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.0102810017539165</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.03686987852255721</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.03050873163491212</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.02970909210647155</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.02182297528080158</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.02724238971169991</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.007963944674690438</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0.004791025154986872</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.03307706906836519</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.01266082187547021</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.01261394747333796</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.001649247280724746</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.01198603626603125</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-0.03133579729971341</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.05237452237862782</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-0.0144213210448463</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-0.02167473769314259</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0.02572148991339904</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.007771117695043477</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.0544739063063972</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.0004162186287929356</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>-0.04789821702662579</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>-0.004214658643504298</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.004909604813079086</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-0.06493122572644981</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.006430088698908698</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.004153725524649717</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.002558131207121983</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-0.0005971608761077322</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>-0.00243713219199927</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.004908982369692364</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-0.003790149861034462</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>-0.002488634824214621</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.0005678642389715029</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.001623619811072584</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.0005469508024039788</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>-0.0863475837244409</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>-0.07358512692114214</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>-0.06797428677066587</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>-0.05739650801796955</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>-0.03167545071066158</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>-0.06704107163558048</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>-0.0670410716355805</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>-0.07973458914419339</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>-0.03673303548959508</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>-0.07458269989806683</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>-0.06851470860005646</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>-0.06999667733222999</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>-0.07560358620045049</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>-0.06341162207385964</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>-0.0469035844659056</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>-0.01153058110705028</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>-0.08122030564953354</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>-0.05332019384427792</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>-0.0663949500382971</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>-0.03006921066649456</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>-0.06185772745143446</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>-0.06065795254885712</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.03849781489673326</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.01686991605112809</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.01825503443524663</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.03045121143387275</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.01865506767257401</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.04534824561007512</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.03448779614710295</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.04140713733424337</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.01023264388887015</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.03684202289812112</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.03053696071041979</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.0298565259753232</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.02192830771378412</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.02749017004534176</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.008079415842451317</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.005137529422468732</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.03342569897909213</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.01296702537449631</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.01285695527260434</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.001716413399279059</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.01224957274000303</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-0.03160638965331859</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.0494870199361535</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-0.01468146028209489</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-0.0221085679461754</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-0.02606512650555125</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.007480459001973711</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.05099071667427126</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-7.697427102168789e-05</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-0.04823807581744168</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-0.004525137548713737</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.004697665078766696</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.06523548979683511</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.006472406234848124</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.004220297194136978</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.002629013282904095</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>-0.0006922147940994266</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>-0.002378300009390028</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.004963602485279509</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-0.003757937586251593</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>-0.002542201333724133</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.00053414204502382</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.001705513098206516</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.000693042413001319</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>-0.08655134334017556</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>-0.07375232131418188</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>-0.06810606601992357</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>-0.05750006220212143</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>-0.03177682444763482</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>-0.06711462013702736</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>-0.06711462013702738</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>-0.0799503429474209</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>-0.03679764037498542</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>-0.07478767986660816</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>-0.06864775818854328</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>-0.07019763157422863</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>-0.0756872799507558</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>-0.06344348015009896</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>-0.0468988776736632</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>-0.01155287201929077</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>-0.0815031401554388</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>-0.05311565483445228</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>-0.06647556354342218</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>-0.03002768640509107</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>-0.0620179778593378</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>-0.06077250364397681</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.03842926210189281</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.01684935520680729</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.018188731068722</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.03047805945405107</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.01868914125129392</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.04531394269104321</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.03433880433221824</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.04131781277751674</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.01019931810742644</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.03682536265011717</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.0305892373067513</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.03000161275754702</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.02206611773653757</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.02777059033950172</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.008243359034956804</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.00551079590653997</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.03377838683205722</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.01328104549525685</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.01314067956714142</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.001817867693284813</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.01253925985264805</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.03189520633470023</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.04664296281309551</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.01491911166703776</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.02251438520592914</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.02638393073350312</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.007219710696375009</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.04762965522432044</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.0005312223734381613</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.04854409548964415</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.004809425584902994</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.004507193844272207</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.06551515267922051</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.006523319477624626</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.004300506574702816</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.002714362664248334</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.0007756278795386427</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.002313743458032783</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.005028968499471424</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.003722104084992991</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.0025768497520184</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.0005101971574307028</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.001793747007703175</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.0008543466784055125</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.08675500984892076</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.07391913651983806</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.06823698208607584</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.05760375527184979</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>-0.03187735412639645</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>-0.06718752648614754</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>-0.06718752648614755</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>-0.08016365313758289</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>-0.03686362085206589</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>-0.0749901799199959</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>-0.06878143465937346</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>-0.07040983664492093</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>-0.07578777683499276</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>-0.06348481515230806</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>-0.04690776228758323</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>-0.01157664179250983</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>-0.08179521253803156</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>-0.05292888330299263</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>-0.06657012337827006</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>-0.02999876494156939</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>-0.0621888811457586</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>-0.06090150832272394</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.03837805363600814</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.01684571319042729</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.01813539682520333</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.03051536230058228</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.01873193884784645</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.04529397406730697</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0342021696670177</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.04125070166070672</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.01018039058436182</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.03681957157445279</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.0306639042616414</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.03014378750521478</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.02223371263624676</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.02808005510990015</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.008452037176586515</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.005906445840082448</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.03413238394448408</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.01360046860872106</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.01346104629922571</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.001951152029625085</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-0.01285161570919887</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.03219937962398246</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.04385897325772535</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-0.01513388567460301</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-0.02289109325603831</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.02667722371910981</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.006989160742117508</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.04440865936366525</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-0.0009455769127304191</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-0.04881630776830517</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-0.0050671008645936</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.004338212012411964</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.0657699971509898</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.006582053183273595</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.004393075553828427</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.002812813541254001</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>-0.0008473262741202875</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>-0.002244311909577912</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.005103945958236967</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-0.003682964980372084</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>-0.002593263789514516</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.000495748143438965</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.001887342942589108</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.001028862121707511</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>-0.08695773492307726</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>-0.07408489061004507</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>-0.06836664608939613</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>-0.05770725785403053</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>-0.0319766593902259</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>-0.06725974386734988</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>-0.06725974386734988</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>-0.08037369878902414</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>-0.03693073940871756</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>-0.07518944716491704</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>-0.06891526479657992</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>-0.0706316764592627</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>-0.07590402214681342</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>-0.06353532210037768</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>-0.04692978237261503</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>-0.01160176516603809</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>-0.08209461977053069</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>-0.05276055945479827</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>-0.0666776288477782</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>-0.02998221382737949</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>-0.06236923468628128</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>-0.0610439047686749</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.03834360040842421</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.01685798212555207</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.01809476641051909</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.03056238817666136</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.01878274822853742</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.04528783559858689</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.03407824027453154</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0412050932860271</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.01017517248156209</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.03682427227127393</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.03075925132403601</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.03028252369363693</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.02242834292173927</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.02841496040480655</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.008701607759727866</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.006320195629599954</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.03448508546631819</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.01392296603973464</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-0.01381394417130681</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-0.002113716585111734</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.01318318899954195</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-0.03251608364728981</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.0411505077379469</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-0.0153255580047354</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-0.02323783384560744</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-0.02694451592871447</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.006788889769893494</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.04134379157194087</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-0.0013193918856764</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>-0.0490549533167037</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>-0.005297929779056941</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.004190607973958028</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-0.06599996831776887</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.006647819849264993</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.00449670969871443</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.002922983832977676</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>-0.0009073241486252325</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>-0.002170839767949389</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.005187403267857877</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>-0.003640848489709167</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>-0.002592220239912378</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.0004904605700707708</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.001985338314429208</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.001214603785050375</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>-0.08715871935045366</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>-0.07424894386704411</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>-0.06849469771367335</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>-0.05781025861330298</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>-0.03207438504294498</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>-0.06733123247076181</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>-0.06733123247076181</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>-0.08057972506551833</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>-0.03699876245156774</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>-0.07538478660382071</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>-0.06904879248021355</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>-0.07086155157115089</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>-0.07603490124786919</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>-0.06359464459646284</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>-0.04696441296833732</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>-0.01162811238071907</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>-0.08239949985862947</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>-0.0526112026720977</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>-0.06679704719812828</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>-0.0299777275203064</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>-0.06255782065881051</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>-0.06119857870035889</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.03832524529702894</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.01688511220325473</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.01806650912077876</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.03061838179732623</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.01884083945822152</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.04529496466192345</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.03396726729208269</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.04118018111563291</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.01018292648497533</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.0368390404524319</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.03087352799213534</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.03041733517925497</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.02264722274739023</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.02877171762193466</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.008988152970197838</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.006747879312323123</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.03483403977818036</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-0.01424630523431631</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-0.01419525341212422</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-0.002302941261320201</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.01353058001400003</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-0.03284255096882949</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.03853180527087749</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-0.01549406368610556</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-0.02355398164584621</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>-0.02718550231856982</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.006618779597354831</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.03844922349249714</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-0.001652314643171976</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>-0.04926047089226551</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>-0.005501860210733409</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.004064143918538122</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-0.06620516678945783</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.006719825393528081</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.004610107462790064</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.003043484936932577</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>-0.0009557190901596136</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>-0.002094141889851114</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.005278218419902249</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-0.003596092313125543</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>-0.002574579047302049</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.0004939519455474932</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.002086792002116802</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.001409615395762898</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>-0.08735721514529278</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>-0.07441070026744018</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>-0.06862080547341215</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>-0.05791246484607265</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>-0.03217020197399629</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>-0.06740195878056081</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>-0.06740195878056081</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>-0.08078104404266007</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>-0.03706746126397702</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>-0.07557556233567297</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>-0.06918158063016214</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>-0.07109788833935607</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>-0.07617924965364478</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>-0.06366237935990415</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>-0.04701106671445462</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>-0.01165555022032</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>-0.08270804178647502</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>-0.05248117551359224</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>-0.06692732107189554</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>-0.02998493271643839</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>-0.06275341505113693</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>-0.06136437370376268</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.03832226962410697</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.01692601973740834</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.01805023357629831</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.03068257001926378</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.01890547051744198</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.0453147457983915</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.03386940730140083</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.04117507170474546</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.01020287340276981</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.03686340940886411</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.03100495608789455</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.03054777778345277</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.02288754965986415</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.02914677614106423</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.00930770893617227</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.007185469247143793</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.03517695647654751</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.01456835977478163</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.01460087327384102</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.00251615656624475</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.01389046035151993</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.03317608802494722</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.03601584667042637</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.01563949034984077</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.02383913783706866</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-0.02740005640853769</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.006478522748338341</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.03573723349618409</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-0.0019442748969441</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>-0.04943348563652987</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>-0.005679013801114656</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.003958462745586423</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-0.06638584110196091</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.006797274621429335</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.004731969019681783</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.003172931078694193</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>-0.0009926871586280449</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>-0.002015009339095089</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.005375285374414184</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>-0.003549040621089178</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>-0.002541273295396558</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.00050579674395039</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.002190789419719051</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.001611980780901229</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>-0.08755252728411805</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>-0.07456960866186774</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>-0.06874466683540788</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>-0.05801360297085852</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>-0.03226380788644166</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>-0.0674718949068043</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>-0.06747189490680432</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>-0.0809770351201836</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>-0.03713661292024751</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>-0.07576119835719745</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>-0.06931321296124779</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>-0.07133914754445371</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>-0.07633586301009677</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>-0.06373808089844121</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>-0.04706910060671061</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>-0.01168394303311601</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>-0.08301849469895253</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>-0.05237068860962855</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>-0.06706737585042334</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>-0.03000339390868586</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>-0.06295479629181201</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>-0.06154010135566808</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.03833389981564807</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.01697959512551335</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.01804549268209617</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.03075416736187189</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.01897589274418063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.04534651651124025</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.03378472531889357</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.04118879386647811</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.01023419877433516</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.03689687459699573</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.03115174199060963</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.03067345050955882</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.02314652356264687</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.02953664467157843</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0.009656293940381831</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.007629094977356875</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.03551171295522787</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-0.01488711822763004</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-0.01502674813086397</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-0.002750663845219745</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-0.01425959124604258</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.03351408934862803</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.03361432445742165</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-0.01576207076056417</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-0.02409312243692339</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>-0.02758822337857251</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.006367632855166296</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.03321821709455534</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-0.002195472294604955</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>-0.04957479662243731</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>-0.005829677374033039</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.003873095497061525</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-0.06654237947352648</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.00687937645275702</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.004861004681212306</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.003309948215838805</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>-0.001018477661228913</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>-0.001934205488611602</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.00547752007176717</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>-0.003500041155968132</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>-0.002493299190246317</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.0005255314752134399</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.002296447176719927</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.001819834487104769</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>-0.08774401506802845</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>-0.07472516365294449</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>-0.06886600819697877</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>-0.05811341891345078</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>-0.03235492783081259</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>-0.06754101795998912</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>-0.06754101795998912</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>-0.08116714503599075</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>-0.03720600114973793</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>-0.07594117897460513</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>-0.06944329554446176</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>-0.0715838324204103</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>-0.07650350689601426</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>-0.06382126627504518</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>-0.04713782282936563</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>-0.01171315372718702</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>-0.08332917629062223</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>-0.05227980637557399</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>-0.06721612683420393</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>-0.03003261912173316</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>-0.06316075346251131</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>-0.0617245510784987</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.03835931418572344</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.01704471066202479</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.01805178876794957</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.0308323813849054</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.01905135607088276</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0453895731650764</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.03371319829686387</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.04122030799092714</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.01027605944224665</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.03693889830457851</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.03131208845849839</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.03079399640246287</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.02342136480387216</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.02993791122790785</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.01002993545027885</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.008075060218944784</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.03583635960156405</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.01520069181793337</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.01546889206693639</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-0.003003754753696694</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.01463484044997137</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-0.03385405054374866</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.03133762311689171</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.0158621746928066</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-0.02431596548389679</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-0.02775021228447046</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.006285455827744202</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.03090070952134735</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.002406362718556677</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>-0.04968536378126606</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>-0.005954293615151022</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.003807469233983004</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-0.0666753009848175</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.006965348883795373</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.004995942860988454</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.003453182455751642</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>-0.00103340769337327</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>-0.001852462480914174</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.005583866047713436</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>-0.003449442461181873</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>-0.002431706104430774</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.0005526597640431502</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.002402917317631695</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.002031371570239553</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>-0.08793109311579472</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>-0.07487690617633888</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>-0.06898458472422316</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>-0.05821167838631369</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>-0.03244331454901634</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>-0.06760930946749906</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>-0.06760930946749907</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>-0.08135088749610266</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>-0.03727541714533911</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>-0.07611504883820107</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>-0.06957145817089469</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>-0.07183049607044387</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>-0.07668092639047731</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>-0.06391141993113691</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>-0.04721649961254629</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>-0.0117430447334833</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>-0.08363848037870683</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>-0.05220845346382014</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>-0.06737248621577438</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>-0.03007206577459272</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>-0.06337009405500141</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>-0.06191649967207169</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.03839764978972658</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.01712022815487786</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.01806857886216609</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.03091641789080439</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.01913111403026659</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.04544317693763998</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.03365471908545259</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.0412685154439754</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.01032759004199313</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.0369889143578899</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.03148420597363718</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.03090910306225447</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.02370933130362635</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.03034726165959295</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.01042469583608556</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.008519857943436432</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.03614912363457434</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.01550732093237855</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-0.01592341185300501</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-0.003272729874851788</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.0150131976265695</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-0.03419357997897279</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.02919480933218032</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.01594030024099901</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-0.02450789719237887</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.02788638749059413</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.006231181673710277</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.02879141975057647</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-0.002577643465359679</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-0.04976629432979341</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-0.006053451108568482</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.003760915279682677</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-0.06678524627142589</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.007054423662622044</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.005135537550141809</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.003601307952167941</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>-0.001037856493728929</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>-0.001770478054782592</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.005693299630216249</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>-0.003397591250050654</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>-0.00235758674705946</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.000586657403036315</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.002509391131485929</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.002244856526742831</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>-0.08811323199465863</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>-0.07502442379177476</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>-0.06910018005466657</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>-0.0583081670625843</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>-0.03252874863367922</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>-0.06767675483102591</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>-0.06767675483102591</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>-0.08152784243695298</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>-0.0373446603115268</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>-0.07628241261442811</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>-0.06969735551655352</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>-0.07207774824264945</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>-0.07686685534943746</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>-0.06400799852858596</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>-0.04730436206517839</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>-0.01177347893124664</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>-0.08394488364438082</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>-0.05215642187371389</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>-0.06753536980348246</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>-0.0301211466234854</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>-0.06358165124077263</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>-0.06211472047251192</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.03844800929272342</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.01720500629979135</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.01809528005463925</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.03100548592265091</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.01921442850631419</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.04550655977788115</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.03360910080446101</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.04133226797449705</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.01038790936712304</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.03704633283390239</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.03166632355218393</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.03101850282510055</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.02400773464764133</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.03076149667622562</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.01083669666198639</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.008960183539128645</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.0364484116204002</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.01580538046110583</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.01638652823416576</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.003554916395541624</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.01539178821573046</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.03453040918145519</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.02719363177579183</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.01599706465079418</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.02466933719693269</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.02799725941779451</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.006203856855176409</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.02689527517651278</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.002710237462168043</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.04981882881577696</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.006127873830903149</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.003732677753988827</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.06687296781655462</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.007145850658812711</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.005278575276775542</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.00375303425061597</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.001032259660098292</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.001688912743012382</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.005804834700650872</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.00334482992494083</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.002272067519987776</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.0006269773470994372</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.002615102525146857</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.002458631345852376</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.08828995849810282</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.07516735069264029</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.06921260586957308</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.05840269064587874</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>-0.03261103850938715</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>-0.06774334282397557</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>-0.06774334282397557</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>-0.08169765493840933</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>-0.03741353894795985</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>-0.07644293431186652</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>-0.06982066810781722</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>-0.07232426144662403</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>-0.07706002534024252</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>-0.06411043577468672</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>-0.04740061293683347</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>-0.01180432053091489</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>-0.08424695153323057</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>-0.05212337863818888</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>-0.06770370345840719</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>-0.03017923573956774</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>-0.06379429062631994</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>-0.06231799209355074</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.03850946780184261</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.01729790777092398</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.01813127490640007</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.03109880253160271</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.01930057420974715</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.04557893032640621</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.03357608157395509</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.04141037706221294</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.01045612657046113</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.037110544742879</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.03185669896845508</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.03112197262621182</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.0243139550849871</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.03117754732082511</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.01126214145111317</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.009392946048598607</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-0.03673281070793972</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-0.01609338399601174</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-0.01685459545958586</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-0.003847684764746913</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-0.01576788574980667</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-0.03486240192042968</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.02534052999232616</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.0160331947584339</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-0.02480088300389447</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-0.02808347470457444</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.006202397069597336</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.02521547614508488</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-0.002805276675762608</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-0.04984432689668575</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>-0.006178410201983236</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.003721922324332007</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-0.06693931993005284</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.007238901911766129</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.005423881525610619</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.003907113058181278</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>-0.001017103271573013</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>-0.001608387443273928</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.005917527005878592</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>-0.003291494255800264</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>-0.002176299116502307</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.0006730546182429405</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.002719330957695284</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.002671122668961651</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>-0.08846085558203574</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>-0.07530536744455432</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>-0.06932170134201299</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>-0.05849507483791961</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>-0.03269002024326326</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>-0.06780906512780062</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>-0.06780906512780062</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>-0.08186003380764727</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>-0.03748187086533036</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>-0.07659633627944958</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>-0.0699411030887634</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>-0.0725687763979093</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>-0.0772591741878388</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>-0.06421814719625875</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>-0.04750443326462576</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>-0.01183543591018438</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>-0.08454334331210704</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>-0.05210887400591872</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>-0.06787642921070568</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>-0.0302456744780441</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>-0.06400691647192071</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>-0.06252510671045974</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.03858107961453101</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.01739780599053554</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.01817591686472552</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.0311955972905876</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.01938884286019641</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.0456594797568983</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.03355532955265528</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.04150162314228727</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.01053134716516494</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.03718092664883672</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.03205362834808222</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.03121933356120039</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.02462545537797832</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.03159248885816592</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.01169733684028752</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.0098152774938964</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.03700108863439498</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.0163699869102267</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-0.01732411900458316</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-0.004148464269269091</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-0.01613892260798528</v>
+      </c>
+      <c r="V33" t="n">
+        <v>-0.03518756198025096</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.02364065186961504</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-0.01604951712330906</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-0.02490329776809386</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-0.02814580587870803</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.006225600344963144</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.02375355949782049</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-0.002864084867637905</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-0.04984425296282183</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>-0.006206021789463445</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.003727745101944103</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-0.06698524849794105</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.007332875344851583</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.005570326599184013</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.004062344418173271</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>-0.0009929179608927725</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>-0.00152948136144259</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.006030478011514344</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>-0.003237911225683114</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>-0.002071447414395127</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.0007243110919092292</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.002821403936294187</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.002880848049150335</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>-0.08862556197281865</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>-0.07543820046476739</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>-0.06942733246750799</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>-0.05858516520674069</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>-0.03276555719319843</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>-0.06787391590613072</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>-0.06787391590613072</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>-0.08201474985550292</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>-0.03754948393089031</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>-0.07674239789667903</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>-0.07005839479299367</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>-0.07281010678246616</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>-0.07746305409136495</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>-0.06433053483110029</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>-0.04761498886426221</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>-0.01186669439945323</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>-0.08483281628564722</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>-0.05211235003840911</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>-0.06805251102567009</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>-0.03031977739741373</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>-0.06421847735653498</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>-0.062734877851926</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.03866188483757191</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.01750359154443182</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.01822853564489841</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.03129511653398782</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.01947854706016072</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.04574738749980573</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.03354644823355695</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.04160476464683826</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.01061267879259764</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.03725684519742502</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.03225545509210674</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.03131045016340206</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.02493979346294695</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.03200355305713224</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.01213871205562661</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.01022454031352725</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.03725219255662982</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.01663398835000379</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.0177917714489309</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.004454757471999938</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.01650249920900699</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.03550403963149519</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.02209787916023271</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.01604694793678933</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.02497749751136125</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.02818514063508296</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.006272160342782044</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.02250947026808384</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.002888159845583015</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.04982016171161163</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.006211771762276205</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.003749181613884877</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.06701178058404078</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.007427098135510594</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.005716830906701133</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.004217582275317471</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.0009602729791917588</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.00145273032421518</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.006142838290401046</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.003184397049387323</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.001958684710865272</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.0007801601381762087</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.002920699076952593</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.003086421310463794</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.08878377146234566</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.07556562125563418</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.06952939128471074</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.05867282695890449</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>-0.03283753950282558</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>-0.06793789141550743</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>-0.06793789141550743</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>-0.08216163388820186</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>-0.03761621654177628</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>-0.07688095397693007</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>-0.07017230512388861</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>-0.07304714333857272</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>-0.07767043927486995</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>-0.06444699180721646</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>-0.04773143662744649</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>-0.01189796901341537</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>-0.08511422918147223</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>-0.05213314954255814</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>-0.06823094019378965</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>-0.03040083808998658</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>-0.06442797127611805</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>-0.06294614767022141</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.03875091583498631</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.01761417821411965</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.01828844254190856</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.03139662730598125</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.01956902384869479</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.04584182681240472</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.03354898194698468</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.04171854680782048</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.01069923672726664</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.03733766152297219</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0324605781004337</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.03139522941582687</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.02525463389074433</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.03240813885826174</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.01258283665499558</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0.0106183329472654</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.03748524676971646</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-0.01688433217625062</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-0.01825440648986465</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-0.004764153468502371</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.01685639165278206</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-0.03581013681726174</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.02071486048689463</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-0.0160264827878658</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-0.02502453789762912</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.02820247081350848</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.00634067976615354</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.02148164065492989</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-0.002879155358305012</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>-0.04977368377497095</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>-0.006196813184903338</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.003785215784536487</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-0.06702001396236884</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.007520929734298879</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.005862369671257982</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.004371739421991774</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>-0.0009197702933675816</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>-0.001378625455428169</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.006253810443854243</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>-0.003131255369880018</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>-0.001839181342095392</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.0008400110934377327</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.003016645736440043</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.003286557012725315</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>-0.0889352319069717</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>-0.07568744540659067</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>-0.06962779499412305</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>-0.0587579446197844</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>-0.03290588345299904</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>-0.06800098965146725</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>-0.06800098965146725</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>-0.082300574438403</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>-0.03768191802492398</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>-0.07701189290602671</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>-0.07028262374843333</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>-0.07327885725847511</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>-0.07788013314090413</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>-0.06456690678252536</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>-0.0478529305910398</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>-0.01192913712611637</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>-0.08538654471845489</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>-0.05217052526081082</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>-0.06841074032309448</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>-0.0304881348873314</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>-0.0646344501671562</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>-0.06315779366502308</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.03884720346628141</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.01772850860073715</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.01835493563771956</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.03149942100311483</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.01965963792555812</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.04594197016225861</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.03356242152234219</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.04184171017018472</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.01079014909239052</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.03742273550873775</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.03266745926952031</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.03147361951731184</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.02556775802576055</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.03280382142919966</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.0130264364978108</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-0.01099449361594099</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-0.03769954937883973</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-0.01712010689838392</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-0.01870907108212323</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-0.005074339927855866</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-0.01719855783162029</v>
+      </c>
+      <c r="V36" t="n">
+        <v>-0.03610431107982313</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.01949305124182549</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-0.01598918636319269</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-0.02504560067688364</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-0.02819888116767078</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.006429683774574106</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.02066707539212656</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>-0.002838862774945623</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>-0.04970651149631686</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>-0.006162377241044677</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.003834788863420133</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-0.06701110665560873</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.007613764528617039</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.006005977050600372</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.004523791820745908</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>-0.0008720387541768602</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>-0.001307612208248848</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.006362651556631653</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>-0.003078775635774543</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>-0.001714097725689689</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.0009032735404801495</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.00310872622425849</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.003480074033533411</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>-0.08907974394846752</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>-0.0758035313800997</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>-0.06972248498331364</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>-0.05884042162651571</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>-0.03297053068010956</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>-0.06806321002865974</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>-0.06806321002865974</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>-0.08243151526031459</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>-0.03774644896300633</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>-0.07713515453914738</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>-0.07038916811086429</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>-0.07350430291679592</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>-0.07809097490071605</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>-0.06468966822010006</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>-0.04797862774666228</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>-0.01196008108731455</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>-0.0856488313774694</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>-0.05222364924308161</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>-0.0685909719159872</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>-0.03058093640697342</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>-0.06483702385159451</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>-0.06336873484117132</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.03894978307994729</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.01784555931992665</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.01842730487217744</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.03160281669954781</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.01974978453927233</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.04604699439408716</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.03358621006115454</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.04197299876879586</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.0108845617629855</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.03751142987675708</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.03287463024547982</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.03154560842318251</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.02587707299183459</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.03318835962176052</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.01346640791678361</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-0.01135110235357421</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.037894567994828</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.01734054464807702</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-0.01915301571058929</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-0.005383113893673735</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-0.01752714204131777</v>
+      </c>
+      <c r="V37" t="n">
+        <v>-0.03638517826021427</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.01843275977187655</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-0.0159361821557741</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-0.02504197990703286</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-0.02817553801336421</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.006537633311914236</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.02006144262852686</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>-0.002769192685907405</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>-0.04962038494807047</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>-0.006109761471415542</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.003896808239673719</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-0.06698626655127574</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.007705034149535236</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.006146749670855781</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.004672782302866891</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>-0.0008177283708727175</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>-0.001240089743329565</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.006468675189798738</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>-0.00302723166175592</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>-0.001584576859460568</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.0009693613772312926</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.003196476606042795</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.003665898284600302</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>-0.08921715947636377</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>-0.07591377909789729</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>-0.06981342576746645</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>-0.05892017983870721</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>-0.03303144727203306</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>-0.06812455309363548</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>-0.06812455309363549</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>-0.08255445261423791</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>-0.03780968144643908</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>-0.07725072787979263</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>-0.07049178327339876</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>-0.07372261993709921</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>-0.07830184565970458</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>-0.06481466847640852</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>-0.04810769356275126</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>-0.01199068877851167</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>-0.08590026439867283</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>-0.05229162232708082</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>-0.0687707365166199</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>-0.03067850690941015</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>-0.06503486340349593</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>-0.06357793728547649</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.03905770023060493</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.01796434575085846</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.01850483694818367</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.03170616414620094</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.01983889203516489</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.04615608565310442</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.03361974877558865</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.04211116792725277</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.01098164293668454</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.03760311408605343</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0330806984199035</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.03161122218128899</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.02618061936262576</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.03355970185464235</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.01389983007976861</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.01168648135856967</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.03806993452699611</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.01754501924479637</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-0.019583702813649</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-0.005688391330836238</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.01784047813120014</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.0366515140102114</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.01753319922788316</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-0.01586864225285858</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-0.02501506805898024</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-0.02813367784062352</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.006662938259203329</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.01965916944070544</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-0.00267215655530731</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-0.04951707827442551</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>-0.006040318106171233</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.003970156087248912</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-0.06694674116318504</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.007794209422655004</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.006283849576737717</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.004817823647058218</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>-0.0007575047257753033</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>-0.001176410641103538</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.006571252918690129</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>-0.002976880372536201</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>-0.001451737305349725</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.001037696656836813</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.00327948711202742</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.003843064584707017</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>-0.08934737985203223</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>-0.07601812834457929</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>-0.06990060385437422</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>-0.05899715897242817</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>-0.03308862275287969</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>-0.06818502026889113</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>-0.06818502026889113</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>-0.08266943236628249</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>-0.03787149925207406</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>-0.07735864856501706</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>-0.07059034159221458</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>-0.07393303461210712</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>-0.07851167394159632</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>-0.06494130768245243</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>-0.04823930719445186</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>-0.01202085410752278</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>-0.08614012603361086</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>-0.05237348365652148</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>-0.06894918041862555</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>-0.03078011143734149</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>-0.06522720394173587</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>-0.06378441915237901</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.0391700160917503</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.01808392632656816</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.01858682004437524</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.03180884643776725</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.01992642406200506</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.04626844404095965</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.03366240284846116</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.0422549916414715</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.01108058735579395</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.03769716802040755</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.03328435216161012</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.03167052308467232</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.02647657760278322</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.03391599045551799</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-0.01432397554287648</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-0.01199919373910805</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-0.0382254391497274</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-0.01773304340878428</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-0.01999881338720981</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-0.005988215412752913</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-0.01813709124038087</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-0.03690225416240821</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.01679254444832484</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-0.01578777726962169</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-0.02496634210588159</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-0.02807459597047675</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.006803970329402768</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.01945354110928119</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>-0.002549848548686713</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>-0.04939838643780638</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>-0.005955442567881799</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.004053697788803261</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-0.06689380760156165</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.007880801966359164</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.006416506605565342</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.004958101046368195</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>-0.0006920435596303063</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>-0.001116880934663429</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.006669815425996343</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>-0.002927960729664206</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>-0.00131666668259731</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.001107713184101447</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.003357402166279805</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.004010717716268979</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>-0.0894703539156441</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>-0.07611655700611836</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>-0.06998402654319359</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>-0.05907131596334576</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>-0.03314206896798179</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>-0.06824461362671876</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>-0.06824461362671876</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>-0.08277654692918085</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>-0.0379317979497405</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>-0.07745899618140409</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>-0.07068474223765218</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>-0.07413486069685181</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>-0.07871944063951619</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>-0.06506899740015933</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>-0.04837266636007852</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>-0.01205047744094352</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>-0.08636780508427912</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>-0.05246822016986553</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>-0.06912549792664657</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>-0.0308850207118907</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>-0.06541334685677905</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>-0.06398725505280192</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.03928581253959355</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.01820340635661568</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.01867254831122566</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.03191028234416522</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.02001188143825311</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.0463832879834978</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.03371350727277189</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.04240326951562932</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.01118062016733483</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.03779298544929637</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0334843652831928</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.03172360766234258</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.02676327327454555</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.03425556450520549</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.01473631900836865</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.01228804073536965</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.03836102352130381</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.01790426518034091</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-0.02039625181035813</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-0.006280763552824789</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.01841569817493256</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.03713649400973709</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.01620799324360451</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-0.01569482649097335</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-0.02489734969277425</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>-0.02799963533277417</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.006959075627183071</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.01943680330627642</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>-0.002404427652401324</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>-0.0492661124408621</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>-0.005856562216111093</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.004146290090342563</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-0.0668287628106332</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.00796436544306822</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.006544020196046951</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.005092873975317129</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>-0.0006220255559849181</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>-0.001061760448103905</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.006763853162626225</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>-0.002880692839321177</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>-0.00118041568966002</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.001178859855703251</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.00342992005425597</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.004168112696811234</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>-0.08958607579774477</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>-0.07620907916129756</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>-0.07006372066639827</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>-0.0591426242651831</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>-0.03319181888073628</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>-0.06830333569137084</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>-0.06830333569137084</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>-0.08287593207011966</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>-0.03799048493829701</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>-0.07755189143635051</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>-0.07077491056830895</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>-0.07432749959750971</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>-0.07892418338666425</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>-0.06519716403883286</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>-0.04850699186622805</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>-0.01207946597434053</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>-0.08658279576469838</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>-0.05257477599575202</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>-0.06929893416859619</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>-0.03099251576350308</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>-0.06559266148308994</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>-0.06418557984488911</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.03940419688703625</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.01832194137679117</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.01876132612918495</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.03200992830553397</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.02009480368123398</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.04649985829262799</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.03377237263101805</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.04255483322278994</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.01128100041098891</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.03788997724802459</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.03367960074662276</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.03177060452971944</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.02703918103219374</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.03457696123486841</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.01513454431251612</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-0.01255205750778811</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.03847677333493305</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.01805846360689683</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-0.02077414894386406</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-0.006564353192180487</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-0.01867520648737335</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-0.03735348655079917</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.01577583144800893</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-0.01559104827936653</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-0.0248096954775554</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-0.02791017543697294</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.007126586802796058</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.01960026636185033</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-0.002238100193465543</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>-0.04912205508909559</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>-0.005745125399538142</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.004246788942874916</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-0.0667529141278682</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.008044496471240205</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.006665760646131569</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.005221477472720113</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>-0.0005481313501182351</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>-0.00101126342382939</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.006852916591400266</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>-0.002835277238110108</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>-0.001043992669855296</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.001250603733931249</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.003496792247878451</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.004314614300534364</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>-0.08969458255760301</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>-0.07629574304429664</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>-0.07013973128441268</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>-0.059211073089905</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>-0.03323792529300567</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>-0.06836118926802545</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>-0.06836118926802545</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>-0.08296776361131156</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>-0.03804747941332062</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>-0.07763749320914065</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>-0.07086079736929388</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>-0.07451043998180547</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>-0.07912500034368712</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>-0.06532525201890013</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>-0.04864153176692668</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>-0.01210773404043755</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>-0.08678469592357743</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>-0.05269206169500078</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>-0.06946878745892944</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>-0.03110189227813038</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>-0.06576458623198377</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>-0.06437859182947465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
